--- a/assets/excel/exp/en/15.1.2_ENG.xlsx
+++ b/assets/excel/exp/en/15.1.2_ENG.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\jekyll\sdg_usa\sdg-indicators\assets\excel\exp\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Zmiany na witrynie eksp\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AFA727-E1C0-426E-BCEC-34EE7327A680}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="15.1.2" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>15.1.2 The average percentage of Key Biodiversity Areas (KBA) covered by protected areas in Poland (%)</t>
   </si>
   <si>
     <t>15.1.2b The average percentage of Key Biodiversity Areas (KBA) on land covered by protected areas in Poland (%)</t>
-  </si>
-  <si>
-    <t>The average percentage of Key Biodiversity Areas (KBA) in marine waters covered by protected areas in Poland (%)</t>
   </si>
   <si>
     <t>15.1.2a The average percentage of Key Biodiversity Areas (KBA) in freshwaters covered by protected areas in Poland (%)</t>
@@ -41,27 +39,18 @@
     <t>Data refer to 2024.</t>
   </si>
   <si>
-    <t>93.3</t>
-  </si>
-  <si>
-    <t>98.5</t>
-  </si>
-  <si>
-    <t>92.2</t>
-  </si>
-  <si>
-    <t>97.8</t>
+    <t>15.1.2c The average percentage of Key Biodiversity Areas (KBA) in marine waters covered by protected areas in Poland (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +66,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,21 +111,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -410,51 +403,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FC52A0-AE5A-4E1D-BB08-7ADEDE8C72C9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="129.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="129.140625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
+      <c r="B1" s="2">
+        <v>93.3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
